--- a/data/topic_data/run_compare_308_317.xlsx
+++ b/data/topic_data/run_compare_308_317.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="258">
   <si>
-    <t>topics_308</t>
+    <t>run_308_topics_30</t>
   </si>
   <si>
     <t>scores_308</t>
@@ -25,7 +25,7 @@
     <t>similarity_308-309</t>
   </si>
   <si>
-    <t>topics_309</t>
+    <t>run_309_topics_35</t>
   </si>
   <si>
     <t>scores_309</t>
@@ -34,7 +34,7 @@
     <t>similarity_309-310</t>
   </si>
   <si>
-    <t>topics_310</t>
+    <t>run_310_topics_40</t>
   </si>
   <si>
     <t>scores_310</t>
@@ -43,7 +43,7 @@
     <t>similarity_310-311</t>
   </si>
   <si>
-    <t>topics_311</t>
+    <t>run_311_topics_45</t>
   </si>
   <si>
     <t>scores_311</t>
@@ -52,7 +52,7 @@
     <t>similarity_311-312</t>
   </si>
   <si>
-    <t>topics_312</t>
+    <t>run_312_topics_50</t>
   </si>
   <si>
     <t>scores_312</t>
@@ -61,7 +61,7 @@
     <t>similarity_312-313</t>
   </si>
   <si>
-    <t>topics_313</t>
+    <t>run_313_topics_55</t>
   </si>
   <si>
     <t>scores_313</t>
@@ -70,7 +70,7 @@
     <t>similarity_313-314</t>
   </si>
   <si>
-    <t>topics_314</t>
+    <t>run_314_topics_60</t>
   </si>
   <si>
     <t>scores_314</t>
@@ -79,7 +79,7 @@
     <t>similarity_314-315</t>
   </si>
   <si>
-    <t>topics_315</t>
+    <t>run_315_topics_65</t>
   </si>
   <si>
     <t>scores_315</t>
@@ -88,7 +88,7 @@
     <t>similarity_315-316</t>
   </si>
   <si>
-    <t>topics_316</t>
+    <t>run_316_topics_70</t>
   </si>
   <si>
     <t>scores_316</t>
@@ -97,7 +97,7 @@
     <t>similarity_316-317</t>
   </si>
   <si>
-    <t>topics_317</t>
+    <t>run_317_topics_90</t>
   </si>
   <si>
     <t>scores_317</t>

--- a/data/topic_data/run_compare_308_317.xlsx
+++ b/data/topic_data/run_compare_308_317.xlsx
@@ -17608,9 +17608,9 @@
   <conditionalFormatting sqref="AA2:AA108">
     <cfRule type="colorScale" priority="9">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <cfvo type="num" val="10"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17620,9 +17620,9 @@
   <conditionalFormatting sqref="C2:C108">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <cfvo type="num" val="10"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17632,9 +17632,9 @@
   <conditionalFormatting sqref="F2:F108">
     <cfRule type="colorScale" priority="2">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <cfvo type="num" val="10"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17644,9 +17644,9 @@
   <conditionalFormatting sqref="I2:I108">
     <cfRule type="colorScale" priority="3">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <cfvo type="num" val="10"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17656,9 +17656,9 @@
   <conditionalFormatting sqref="L2:L108">
     <cfRule type="colorScale" priority="4">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <cfvo type="num" val="10"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17668,9 +17668,9 @@
   <conditionalFormatting sqref="O2:O108">
     <cfRule type="colorScale" priority="5">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <cfvo type="num" val="10"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17680,9 +17680,9 @@
   <conditionalFormatting sqref="R2:R108">
     <cfRule type="colorScale" priority="6">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <cfvo type="num" val="10"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17692,9 +17692,9 @@
   <conditionalFormatting sqref="U2:U108">
     <cfRule type="colorScale" priority="7">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <cfvo type="num" val="10"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -17704,9 +17704,9 @@
   <conditionalFormatting sqref="X2:X108">
     <cfRule type="colorScale" priority="8">
       <colorScale>
-        <cfvo type="min" val="0"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="5"/>
+        <cfvo type="num" val="10"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
